--- a/exports/apgar1unhealthy.xlsx
+++ b/exports/apgar1unhealthy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,25 +474,17 @@
       <c r="B2" t="n">
         <v>7</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=30.008368232866097)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=30.008368232866097)</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=30.008368232866097)</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=30.008368232866097)</t>
-        </is>
+      <c r="C2" t="n">
+        <v>20.2612021301668</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.848114316477954</v>
+      </c>
+      <c r="E2" t="n">
+        <v>13.83535215134004</v>
+      </c>
+      <c r="F2" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -504,25 +496,17 @@
       <c r="B3" t="n">
         <v>7.28</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=23.98278428923992)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=23.98278428923992)</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=23.98278428923992)</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=23.98278428923992)</t>
-        </is>
+      <c r="C3" t="n">
+        <v>14.64031513571601</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.84863900329349</v>
+      </c>
+      <c r="E3" t="n">
+        <v>26.51062850876984</v>
+      </c>
+      <c r="F3" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -534,745 +518,699 @@
       <c r="B4" t="n">
         <v>7.14</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=20.447303227431547)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=20.447303227431547)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=20.447303227431547)</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=20.447303227431547)</t>
-        </is>
+      <c r="C4" t="n">
+        <v>13.10423286807256</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.025939589265073</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3.37347590611476</v>
+      </c>
+      <c r="F4" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1074</t>
+          <t>1062</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=18.592306580238088)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=18.592306580238088)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=18.592306580238088)</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=18.592306580238088)</t>
-        </is>
+        <v>7.13</v>
+      </c>
+      <c r="C5" t="n">
+        <v>15.2282316049736</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.45142988240247</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4.885309725815604</v>
+      </c>
+      <c r="F5" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>1084</t>
+          <t>1065</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=16.61615156217473)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=16.61615156217473)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=16.61615156217473)</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=16.61615156217473)</t>
-        </is>
+        <v>7.13</v>
+      </c>
+      <c r="C6" t="n">
+        <v>22.29447150050382</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.626556528030944</v>
+      </c>
+      <c r="E6" t="n">
+        <v>14.58340096931597</v>
+      </c>
+      <c r="F6" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>1085</t>
+          <t>1074</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=19.160599650051903)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=19.160599650051903)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=19.160599650051903)</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=19.160599650051903)</t>
-        </is>
+        <v>7.33</v>
+      </c>
+      <c r="C7" t="n">
+        <v>14.1248856555552</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.637947706174456</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5.737123890265383</v>
+      </c>
+      <c r="F7" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>1099</t>
+          <t>1077</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=18.89328268712506)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=18.89328268712506)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=18.89328268712506)</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=18.89328268712506)</t>
-        </is>
+        <v>7.22</v>
+      </c>
+      <c r="C8" t="n">
+        <v>23.66011223808738</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.496382481303036</v>
+      </c>
+      <c r="E8" t="n">
+        <v>16.23759865476204</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>1084</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=21.410953484240004)</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=21.410953484240004)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=21.410953484240004)</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=21.410953484240004)</t>
-        </is>
+        <v>7.22</v>
+      </c>
+      <c r="C9" t="n">
+        <v>11.32762615824929</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.484142320826577</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5.988088654924094</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1085</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=22.34690942869585)</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=22.34690942869585)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=22.34690942869585)</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=22.34690942869585)</t>
-        </is>
+        <v>7.13</v>
+      </c>
+      <c r="C10" t="n">
+        <v>12.39636879239797</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8445248796690518</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9.420263260930167</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>1140</t>
+          <t>1099</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=18.21992532478053)</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=18.21992532478053)</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=18.21992532478053)</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=18.21992532478053)</t>
-        </is>
+        <v>7.14</v>
+      </c>
+      <c r="C11" t="n">
+        <v>16.76090722290327</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3.069158344768389</v>
+      </c>
+      <c r="E11" t="n">
+        <v>8.305200610098906</v>
+      </c>
+      <c r="F11" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>1154</t>
+          <t>1100</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>7.18</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=15.512508219000823)</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=15.512508219000823)</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=15.512508219000823)</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=15.512508219000823)</t>
-        </is>
+      <c r="C12" t="n">
+        <v>16.78499324066751</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3.019081470445086</v>
+      </c>
+      <c r="E12" t="n">
+        <v>12.04986842956836</v>
+      </c>
+      <c r="F12" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>1172</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=16.423296877853204)</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=16.423296877853204)</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=16.423296877853204)</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=16.423296877853204)</t>
-        </is>
+        <v>7.16</v>
+      </c>
+      <c r="C13" t="n">
+        <v>20.13346627283332</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.748087898888287</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10.70284870136594</v>
+      </c>
+      <c r="F13" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>1197</t>
+          <t>1140</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=21.313080658347655)</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=21.313080658347655)</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=21.313080658347655)</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=21.313080658347655)</t>
-        </is>
+        <v>7.18</v>
+      </c>
+      <c r="C14" t="n">
+        <v>13.97093682514189</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.137692670622868</v>
+      </c>
+      <c r="E14" t="n">
+        <v>14.90678558495991</v>
+      </c>
+      <c r="F14" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>1211</t>
+          <t>1154</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=20.130789472725528)</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=20.130789472725528)</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=20.130789472725528)</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=20.130789472725528)</t>
-        </is>
+        <v>7.18</v>
+      </c>
+      <c r="C15" t="n">
+        <v>9.501778256372228</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.433023556846368</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3.91838879510218</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>1245</t>
+          <t>1156</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=10.6888504778175)</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=10.6888504778175)</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=10.6888504778175)</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=10.6888504778175)</t>
-        </is>
+        <v>7.03</v>
+      </c>
+      <c r="C16" t="n">
+        <v>18.7163743010461</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.911914209279715</v>
+      </c>
+      <c r="E16" t="n">
+        <v>9.772954938204414</v>
+      </c>
+      <c r="F16" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>1329</t>
+          <t>1172</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7.09</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=24.445709191303635)</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=24.445709191303635)</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=24.445709191303635)</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=24.445709191303635)</t>
-        </is>
+        <v>7.12</v>
+      </c>
+      <c r="C17" t="n">
+        <v>11.43705331809856</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.920757794620315</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4.20277796320079</v>
+      </c>
+      <c r="F17" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>1360</t>
+          <t>1197</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=12.858714145687314)</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=12.858714145687314)</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=12.858714145687314)</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=12.858714145687314)</t>
-        </is>
+        <v>7.13</v>
+      </c>
+      <c r="C18" t="n">
+        <v>19.02938122353298</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.435118729741948</v>
+      </c>
+      <c r="E18" t="n">
+        <v>12.89392078810513</v>
+      </c>
+      <c r="F18" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>1370</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7.03</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=19.409912504455278)</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=19.409912504455278)</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=19.409912504455278)</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=19.409912504455278)</t>
-        </is>
+        <v>6.98</v>
+      </c>
+      <c r="C19" t="n">
+        <v>19.66222606620455</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3.030598325360426</v>
+      </c>
+      <c r="E19" t="n">
+        <v>10.61395360270557</v>
+      </c>
+      <c r="F19" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>1392</t>
+          <t>1245</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=15.68138189737738)</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=15.68138189737738)</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=15.68138189737738)</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=15.68138189737738)</t>
-        </is>
+        <v>7.12</v>
+      </c>
+      <c r="C20" t="n">
+        <v>8.555752514241625</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.17890205541169</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5.015607194647708</v>
+      </c>
+      <c r="F20" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>1398</t>
+          <t>1305</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=19.125955059164806)</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=19.125955059164806)</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=19.125955059164806)</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=19.125955059164806)</t>
-        </is>
+        <v>7.11</v>
+      </c>
+      <c r="C21" t="n">
+        <v>14.182218825874</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.524063833079722</v>
+      </c>
+      <c r="E21" t="n">
+        <v>12.98336787351317</v>
+      </c>
+      <c r="F21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>1399</t>
+          <t>1329</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7.28</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=14.656439003174677)</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=14.656439003174677)</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=14.656439003174677)</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=14.656439003174677)</t>
-        </is>
+        <v>7.09</v>
+      </c>
+      <c r="C22" t="n">
+        <v>19.31823336468979</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2.585861487112157</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3.714074165575742</v>
+      </c>
+      <c r="F22" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>1406</t>
+          <t>1360</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=17.49863514094865)</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=17.49863514094865)</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=17.49863514094865)</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=17.49863514094865)</t>
-        </is>
+        <v>7.16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>11.21543487313051</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.880672618791574</v>
+      </c>
+      <c r="E23" t="n">
+        <v>6.648214906827321</v>
+      </c>
+      <c r="F23" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>1409</t>
+          <t>1370</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=16.242656003421857)</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=16.242656003421857)</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=16.242656003421857)</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=16.242656003421857)</t>
-        </is>
+        <v>7.03</v>
+      </c>
+      <c r="C24" t="n">
+        <v>10.64927355675065</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.7650142517193413</v>
+      </c>
+      <c r="E24" t="n">
+        <v>7.006603063537734</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>1412</t>
+          <t>1392</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=21.614200821420216)</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=21.614200821420216)</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=21.614200821420216)</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=21.614200821420216)</t>
-        </is>
+        <v>7.26</v>
+      </c>
+      <c r="C25" t="n">
+        <v>16.02409046434199</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3.174723496625334</v>
+      </c>
+      <c r="E25" t="n">
+        <v>6.040278558458219</v>
+      </c>
+      <c r="F25" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>1450</t>
+          <t>1394</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7.27</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=21.735226020817024)</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=21.735226020817024)</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=21.735226020817024)</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=21.735226020817024)</t>
-        </is>
+        <v>7.2</v>
+      </c>
+      <c r="C26" t="n">
+        <v>19.774220223066</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3.598768504887894</v>
+      </c>
+      <c r="E26" t="n">
+        <v>12.7140391381506</v>
+      </c>
+      <c r="F26" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>1487</t>
+          <t>1398</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=23.060939412020737)</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=23.060939412020737)</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=23.060939412020737)</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=23.060939412020737)</t>
-        </is>
+        <v>7.12</v>
+      </c>
+      <c r="C27" t="n">
+        <v>14.83466829316838</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2.318064789808063</v>
+      </c>
+      <c r="E27" t="n">
+        <v>10.06131262317435</v>
+      </c>
+      <c r="F27" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
+          <t>1399</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="C28" t="n">
+        <v>8.113389967505748</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.396139937127157</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4.685676507111217</v>
+      </c>
+      <c r="F28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>1404</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="C29" t="n">
+        <v>19.11824566937721</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.6266717308582</v>
+      </c>
+      <c r="E29" t="n">
+        <v>13.57207349789775</v>
+      </c>
+      <c r="F29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>1406</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="C30" t="n">
+        <v>16.03109597208861</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2.206187332209771</v>
+      </c>
+      <c r="E30" t="n">
+        <v>7.832334238509944</v>
+      </c>
+      <c r="F30" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>1409</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="C31" t="n">
+        <v>14.37316366062232</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.748521718445325</v>
+      </c>
+      <c r="E31" t="n">
+        <v>6.423727769537642</v>
+      </c>
+      <c r="F31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>1412</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C32" t="n">
+        <v>18.04385261486464</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3.155559826166355</v>
+      </c>
+      <c r="E32" t="n">
+        <v>6.328767076480719</v>
+      </c>
+      <c r="F32" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>1450</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="C33" t="n">
+        <v>17.62335200437054</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.862940759567327</v>
+      </c>
+      <c r="E33" t="n">
+        <v>9.128363725680565</v>
+      </c>
+      <c r="F33" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>1487</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="C34" t="n">
+        <v>21.9734738621106</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3.329946945453993</v>
+      </c>
+      <c r="E34" t="n">
+        <v>10.29613027141811</v>
+      </c>
+      <c r="F34" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
           <t>1506</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B35" t="n">
         <v>7.12</v>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=14.626280587125782)</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=14.626280587125782)</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=14.626280587125782)</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=14.626280587125782)</t>
-        </is>
+      <c r="C35" t="n">
+        <v>8.439908428967662</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.498405989960301</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3.505216365025257</v>
+      </c>
+      <c r="F35" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
